--- a/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.972225374393147</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.67562792554924</v>
+        <v>13.67562792554923</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.153072579582958</v>
+        <v>2.259644783815068</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.421607477126721</v>
+        <v>-2.310852156180459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.927135248825619</v>
+        <v>9.918664294462832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9795774159680849</v>
+        <v>0.9070469536482072</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.511229919665066</v>
+        <v>0.8619385935742685</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.21580386150998</v>
+        <v>11.46967220145</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.172977218523283</v>
+        <v>2.064196368906771</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01746845384602791</v>
+        <v>0.006055343101869516</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.45208483759371</v>
+        <v>11.55697826624045</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.687975064769732</v>
+        <v>7.739856340922159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.764884311055106</v>
+        <v>2.828106418631952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.33042486830131</v>
+        <v>16.81406135167793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.08836198266153</v>
+        <v>5.935969320344872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.31349196369444</v>
+        <v>6.023755049914103</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.72375520316945</v>
+        <v>16.94331194619523</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.963462202336949</v>
+        <v>5.826944592164717</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.864707491227553</v>
+        <v>3.831223695099137</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.95343268004231</v>
+        <v>15.99799893777542</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2190305137528658</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.518781701785865</v>
+        <v>1.518781701785864</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2240958825599934</v>
+        <v>0.2263753782075719</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2597227356419427</v>
+        <v>-0.2466192167656401</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.044848872511796</v>
+        <v>1.045852280795174</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08344703168317057</v>
+        <v>0.08726276685576195</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0364935544510249</v>
+        <v>0.07194829250122009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.019283036512108</v>
+        <v>1.05762772813945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2208941702216479</v>
+        <v>0.2062138774088425</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-4.964497257640278e-05</v>
+        <v>0.009770021562948117</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.165412129900322</v>
+        <v>1.156432692255486</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.097582657931047</v>
+        <v>1.070836943624769</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3972471464501832</v>
+        <v>0.3817066733991568</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.305327431411054</v>
+        <v>2.325212420277338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7192326248271318</v>
+        <v>0.6996888972370805</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7423660804185531</v>
+        <v>0.6799321695874</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.991833679744613</v>
+        <v>1.995282055497935</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7181472341665109</v>
+        <v>0.7183333780117616</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4651344971874287</v>
+        <v>0.4575474626612593</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.947294006225431</v>
+        <v>1.980698978321156</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05985321861865845</v>
+        <v>0.3223517570523363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.01773242625198193</v>
+        <v>0.01726196623179422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.125606866481491</v>
+        <v>4.233569778475452</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.543266810088094</v>
+        <v>1.702832280038331</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6245429037140611</v>
+        <v>-0.7122700321103179</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.243550001193749</v>
+        <v>3.459243957943851</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.267873407457565</v>
+        <v>1.214089507972532</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002309966115435857</v>
+        <v>0.05023908226020898</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.136501801242734</v>
+        <v>4.255359235974987</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.854439382289976</v>
+        <v>3.050767490409711</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.709865533155973</v>
+        <v>2.671298174864663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.364060611761909</v>
+        <v>7.402457922240687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.847635525703522</v>
+        <v>4.940462278161109</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.328708782353279</v>
+        <v>2.13265451105151</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.260547721668701</v>
+        <v>6.349080384813743</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.404792041745234</v>
+        <v>3.263443634312517</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.998673536976791</v>
+        <v>2.033212592777748</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.439579835300265</v>
+        <v>6.458841124698517</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.008453955210388994</v>
+        <v>0.07098802653864589</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.005857790449902522</v>
+        <v>0.004193882541770463</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8981669301306646</v>
+        <v>0.9111602337034855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3028917266451021</v>
+        <v>0.3592162223212193</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1522578963683251</v>
+        <v>-0.1556924072385433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6907857637807302</v>
+        <v>0.7338431154512893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2681384703922443</v>
+        <v>0.2790952250451778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.005701570647166409</v>
+        <v>0.01188638700097782</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9663873737025318</v>
+        <v>0.9634220699329674</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9658871387369762</v>
+        <v>1.010396925244562</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8859042717276839</v>
+        <v>0.8932103524056385</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.411465508340148</v>
+        <v>2.357403506665072</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.526963489853067</v>
+        <v>1.525226135268105</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7249054854970562</v>
+        <v>0.6830011845269692</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.16282292891075</v>
+        <v>2.043018083343245</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.001908499598981</v>
+        <v>0.9668990348123894</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.594720939189063</v>
+        <v>0.5956279052178621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.955213338134352</v>
+        <v>1.912620537866179</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.05015860343397169</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.461036344091635</v>
+        <v>2.461036344091634</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.419363194461911</v>
+        <v>-1.096923185341725</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.53733114568761</v>
+        <v>-1.456071583870556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.526375792836309</v>
+        <v>1.505322809801267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.675432480286242</v>
+        <v>-2.606937046305147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.7274936428581</v>
+        <v>-3.610887188816822</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.917519791007638</v>
+        <v>-1.981995273603342</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.203317681061107</v>
+        <v>-1.159495920893296</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.805718929937371</v>
+        <v>-1.592032349276807</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6567560110035074</v>
+        <v>0.7263097307466</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.555877473790099</v>
+        <v>3.99114850107354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.952597042651073</v>
+        <v>2.982229928713721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.820987281276744</v>
+        <v>7.024424692411313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.153979316701928</v>
+        <v>3.326191785902977</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.68282895327284</v>
+        <v>1.902893479283497</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.952723416451474</v>
+        <v>3.142972149351573</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.505100969511464</v>
+        <v>2.760260173285322</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.782905805493117</v>
+        <v>1.816659734669361</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.237241297530606</v>
+        <v>4.236609106419049</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2924442190505625</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.50154275649281</v>
+        <v>1.501542756492809</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.02629988027688825</v>
@@ -1197,7 +1197,7 @@
         <v>0.01344008311628025</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6594388749343808</v>
+        <v>0.6594388749343806</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3900672804187293</v>
+        <v>-0.3290140817870799</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.435460447785321</v>
+        <v>-0.406660000284345</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.27427069782275</v>
+        <v>0.208339593270372</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4248402923710144</v>
+        <v>-0.4273171929774312</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5932398434757448</v>
+        <v>-0.5672691064367766</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2969639169936819</v>
+        <v>-0.3032139154550094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2807001382124671</v>
+        <v>-0.2716404921008299</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3960960784361424</v>
+        <v>-0.3536486934585296</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1083229076993041</v>
+        <v>0.1332845920272363</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.229969849992173</v>
+        <v>2.340287867429257</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.729876066075594</v>
+        <v>1.786127630908188</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.93203161696525</v>
+        <v>3.76670023553622</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8746556835582723</v>
+        <v>0.9879050129548854</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4836908042177232</v>
+        <v>0.5500910706534519</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9492497377853346</v>
+        <v>0.9215371895231061</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8329794059110754</v>
+        <v>0.9653110100958293</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6698958904855464</v>
+        <v>0.6735857764002473</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.496108420047378</v>
+        <v>1.565928354386006</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6025785061156739</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.543459425588513</v>
+        <v>5.543459425588516</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.156321331379047</v>
+        <v>1.180404784388465</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4988513857791416</v>
+        <v>-0.549704512963361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.633820552610761</v>
+        <v>4.623477915250617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.577417181793407</v>
+        <v>1.544044751771231</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5916037404284904</v>
+        <v>-0.5332426896622147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.987029104047979</v>
+        <v>3.953804721946991</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.642330114108196</v>
+        <v>1.639731034398688</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.163012761376333</v>
+        <v>-0.2354212779026992</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.650736309076416</v>
+        <v>4.663476339652033</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.520973570830578</v>
+        <v>3.614107796893812</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.711405806461432</v>
+        <v>1.6317666718387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.323434984624702</v>
+        <v>7.218560729473721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.30113490081047</v>
+        <v>4.159640123290473</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.945707699581339</v>
+        <v>1.911092625998623</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.391074071054076</v>
+        <v>6.433688686927828</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.35019460219218</v>
+        <v>3.481494876798831</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.486371082606068</v>
+        <v>1.430134156100767</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.446105315934823</v>
+        <v>6.432009492490782</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1069095596204918</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9835213170546857</v>
+        <v>0.9835213170546862</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2047132981760781</v>
+        <v>0.2099242962993717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09009761655147389</v>
+        <v>-0.1041086650472989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8392842602819677</v>
+        <v>0.8493758006667677</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2267084276700559</v>
+        <v>0.2263681195821864</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08631224905696132</v>
+        <v>-0.07770649501639017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.564816239217202</v>
+        <v>0.570698425284595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2720920223241254</v>
+        <v>0.272416430665751</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02740005577152374</v>
+        <v>-0.03898856763776167</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7653122319330594</v>
+        <v>0.7649604926637908</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7938496843594125</v>
+        <v>0.7929998034141746</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3935469039651196</v>
+        <v>0.3575439183058262</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.658550531275396</v>
+        <v>1.638526969100563</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7599172478979709</v>
+        <v>0.7486211357473149</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3314424579657587</v>
+        <v>0.3298981919646986</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.122116038811796</v>
+        <v>1.150824917420267</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6415830005421177</v>
+        <v>0.6677107419233188</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2846820295469314</v>
+        <v>0.2735856910300982</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.23054368168545</v>
+        <v>1.243601134705821</v>
       </c>
     </row>
     <row r="28">
